--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>MBAC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,36 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +710,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +745,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +780,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +815,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +834,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +865,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,20 +900,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,8 +935,14 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +970,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,20 +986,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,19 +1017,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1052,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,19 +1071,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1034,19 +1102,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1063,8 +1137,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,20 +1172,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1207,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1242,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,20 +1277,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,20 +1312,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1347,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1382,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1417,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1452,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,19 +1487,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1382,20 +1522,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1557,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,20 +1592,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,25 +1627,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1667,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1686,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1701,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1732,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1767,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1802,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,20 +1837,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,20 +1872,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,19 +1907,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>400000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>400000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>400000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1732,8 +1942,14 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1977,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2012,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2047,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,8 +2082,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1877,8 +2117,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2152,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>401900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>402400</v>
+      </c>
+      <c r="F54" s="3">
         <v>402900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2187,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2206,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2221,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2252,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,19 +2287,25 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2048,20 +2322,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2357,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,20 +2392,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>42500</v>
+      </c>
+      <c r="F62" s="3">
         <v>45700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2427,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2462,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2497,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2532,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>42500</v>
+      </c>
+      <c r="F66" s="3">
         <v>46200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2567,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2586,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2617,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2652,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2687,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2722,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2757,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2792,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2827,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2862,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>359800</v>
+      </c>
+      <c r="F76" s="3">
         <v>356800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2897,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,25 +2932,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,20 +2972,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3007,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +3026,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +3057,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3092,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3127,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3162,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3197,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,20 +3232,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3267,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3286,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3317,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3352,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,20 +3387,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3422,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3441,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3472,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3507,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3542,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,20 +3577,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>402600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3612,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,20 +3647,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3680,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>MBAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,8 +716,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,8 +754,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,8 +792,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +848,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,23 +922,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,8 +960,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,23 +1013,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1049,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,14 +1061,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1105,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,14 +1115,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1141,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1117,14 +1153,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1179,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,23 +1217,26 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1255,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,8 +1293,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,23 +1331,26 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,23 +1369,26 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1559,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1502,14 +1571,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,23 +1597,26 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,23 +1673,26 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,28 +1711,31 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1824,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,8 +1862,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,8 +1900,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,23 +1938,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,23 +1976,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,8 +2014,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,8 +2031,8 @@
       <c r="F47" s="3">
         <v>400000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>400000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1948,8 +2052,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2090,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,8 +2128,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,13 +2204,16 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2105,14 +2224,14 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2123,8 +2242,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>401600</v>
+      </c>
+      <c r="E54" s="3">
         <v>401900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>402400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>402900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,23 +2352,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,8 +2388,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2293,22 +2426,25 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2328,23 +2464,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2502,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2398,23 +2540,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E62" s="3">
         <v>46100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2578,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E66" s="3">
         <v>46300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,23 +2898,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2936,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>354600</v>
+      </c>
+      <c r="E76" s="3">
         <v>355600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>359800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>356800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,28 +3126,31 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,23 +3169,26 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3225,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3063,8 +3261,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,23 +3451,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3507,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3543,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,8 +3619,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,11 +3634,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,23 +3825,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>402600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,8 +3863,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,23 +3901,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>MBAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,47 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,8 +721,14 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,8 +765,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +809,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +853,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,8 +875,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +915,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,13 +959,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -940,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -963,8 +1003,14 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1047,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,29 +1066,31 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6400</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>-4600</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="G17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1106,14 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,20 +1121,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>4600</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-2400</v>
       </c>
       <c r="G18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1150,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1172,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1115,19 +1183,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1212,14 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1153,19 +1227,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F21" s="3">
         <v>3100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1256,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,28 +1300,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>4700</v>
       </c>
       <c r="E23" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F23" s="3">
         <v>3100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1258,8 +1344,14 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,8 +1388,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,28 +1432,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>4700</v>
       </c>
       <c r="E26" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F26" s="3">
         <v>3100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1372,28 +1476,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>4700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F27" s="3">
         <v>3100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1410,8 +1520,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1564,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1608,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1652,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +1696,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,19 +1711,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1600,28 +1740,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>4700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F33" s="3">
         <v>3100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1638,8 +1784,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,28 +1828,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>4700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F35" s="3">
         <v>3100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1714,34 +1872,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1921,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1943,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,29 +1961,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,8 +2001,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,8 +2045,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +2089,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,29 +2133,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,29 +2177,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,16 +2221,22 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400000</v>
+        <v>400200</v>
       </c>
       <c r="E47" s="3">
-        <v>400000</v>
+        <v>400100</v>
       </c>
       <c r="F47" s="3">
         <v>400000</v>
@@ -2034,11 +2244,11 @@
       <c r="G47" s="3">
         <v>400000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>400000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>400000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2055,8 +2265,14 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,8 +2309,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2353,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2397,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,37 +2441,43 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2245,8 +2485,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,29 +2529,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>401100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>401400</v>
+      </c>
+      <c r="F54" s="3">
         <v>401600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>401900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>402400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>402900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2573,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2595,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,8 +2613,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2364,18 +2626,18 @@
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,8 +2653,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2429,28 +2697,34 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2467,29 +2741,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2785,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2543,29 +2829,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F62" s="3">
         <v>40600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>46100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>42500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>45700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2873,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2917,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2961,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,29 +3005,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F66" s="3">
         <v>47000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>46300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>42500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>46200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3049,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +3071,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +3111,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +3155,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3199,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,29 +3243,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-44400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3287,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3331,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3375,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,29 +3419,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>383500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>378800</v>
+      </c>
+      <c r="F76" s="3">
         <v>354600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>355600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>359800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>356800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3463,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,34 +3507,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,28 +3556,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>4700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4300</v>
+        <v>24200</v>
       </c>
       <c r="F81" s="3">
         <v>3100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3210,8 +3600,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3622,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3264,8 +3662,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3706,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3750,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3794,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3838,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,29 +3882,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3926,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,8 +3948,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3546,8 +3988,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +4032,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,8 +4076,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3637,14 +4097,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4120,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +4142,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +4182,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +4226,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4270,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,8 +4314,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3837,20 +4329,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>402600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +4358,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3904,29 +4402,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4444,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1133,7 +1133,7 @@
         <v>-1700</v>
       </c>
       <c r="I18" s="3">
-        <v>-1800</v>
+        <v>-1300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1723,7 +1723,7 @@
         <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>MBAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,8 +728,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +775,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +822,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -986,11 +1006,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,8 +1094,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1077,23 +1104,23 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>-4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1139,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,23 +1151,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,23 +1217,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F20" s="3">
         <v>19600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1218,8 +1252,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,23 +1264,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>24200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1299,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,32 +1346,35 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,31 +1393,34 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1394,8 +1440,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,32 +1487,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,32 +1534,35 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1711,23 +1781,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-19600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,32 +1816,35 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,32 +1910,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,37 +1957,40 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,8 +2141,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2095,8 +2188,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2139,32 +2235,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,32 +2282,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,19 +2329,22 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>402100</v>
+      </c>
+      <c r="E47" s="3">
         <v>400200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>400000</v>
       </c>
       <c r="G47" s="3">
         <v>400000</v>
@@ -2250,8 +2355,8 @@
       <c r="I47" s="3">
         <v>400000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>400000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2271,8 +2376,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2315,8 +2423,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,8 +2564,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2459,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2479,8 +2599,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2491,8 +2611,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,32 +2658,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>402500</v>
+      </c>
+      <c r="E54" s="3">
         <v>401100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>401400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>401600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>401900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>402400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>402900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,8 +2745,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2632,15 +2763,15 @@
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2790,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2703,31 +2837,34 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2747,32 +2884,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,8 +2931,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2835,32 +2978,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
         <v>16100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2879,8 +3025,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,32 +3166,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E66" s="3">
         <v>17500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,32 +3420,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,32 +3608,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>385700</v>
+      </c>
+      <c r="E76" s="3">
         <v>383500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>378800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>354600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>355600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>359800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>356800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,37 +3702,40 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,32 +3754,35 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,8 +3822,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3668,8 +3867,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,32 +4102,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,8 +4309,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4103,11 +4333,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4356,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,8 +4563,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,17 +4581,17 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>402600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4610,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,32 +4657,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>MBAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,8 +731,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,8 +781,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,8 +831,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +903,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1001,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,11 +1016,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-5400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1009,11 +1028,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1032,8 +1051,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,35 +1120,36 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>-4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1168,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,23 +1183,23 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1240,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1217,26 +1250,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1288,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1264,26 +1300,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,8 +1338,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,35 +1388,38 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,17 +1438,20 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1467,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1443,8 +1488,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,35 +1538,38 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,35 +1588,38 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1738,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,8 +1838,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1781,26 +1850,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1819,35 +1888,38 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,35 +1988,38 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,40 +2038,43 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,35 +2135,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2183,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,31 +2233,34 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2191,8 +2283,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,35 +2333,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,35 +2383,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,22 +2433,25 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>404100</v>
+      </c>
+      <c r="E47" s="3">
         <v>402100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>400000</v>
       </c>
       <c r="H47" s="3">
         <v>400000</v>
@@ -2358,8 +2462,8 @@
       <c r="J47" s="3">
         <v>400000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>400000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2379,8 +2483,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2426,8 +2533,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2473,8 +2583,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,8 +2683,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2582,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2602,8 +2721,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2614,8 +2733,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,35 +2783,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>404700</v>
+      </c>
+      <c r="E54" s="3">
         <v>402500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>401100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>401400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>401600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>401900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>402400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>402900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,8 +2875,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2766,15 +2896,15 @@
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2923,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2840,34 +2973,37 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2887,35 +3023,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,8 +3073,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2981,35 +3123,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,8 +3173,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,35 +3323,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E66" s="3">
         <v>16900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3376,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,35 +3593,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3643,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,35 +3793,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E76" s="3">
         <v>385700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>383500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>378800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>354600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>355600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>359800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>356800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,8 +3843,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,40 +3893,43 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,35 +3948,38 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,8 +4020,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3870,8 +4068,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,35 +4318,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4152,8 +4368,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,8 +4390,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4218,8 +4438,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,13 +4538,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4336,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4359,8 +4588,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,8 +4808,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4584,17 +4829,17 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>402600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4613,8 +4858,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,35 +4908,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,6 +4956,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
   <si>
     <t>MBAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,62 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,8 +736,14 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,8 +792,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,8 +848,14 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +904,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,8 +930,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -954,8 +982,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1038,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,26 +1059,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1094,14 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1150,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,41 +1173,43 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1225,14 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1180,32 +1240,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1281,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1307,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,32 +1318,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>19600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1359,14 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1300,32 +1374,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>24200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1341,8 +1415,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,41 +1471,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>24200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,23 +1527,29 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,11 +1562,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1491,8 +1583,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,41 +1639,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>24200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,41 +1695,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>24200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1751,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1807,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,8 +1863,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1919,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1975,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1850,32 +1990,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-19600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1891,41 +2031,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>24200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2087,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,41 +2143,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>24200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,46 +2199,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2260,14 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2286,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,41 +2308,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2360,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,19 +2416,25 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -2262,11 +2448,11 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2286,8 +2472,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,41 +2528,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,41 +2584,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,28 +2640,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F47" s="3">
         <v>404100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>402100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>400200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>400100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>400000</v>
       </c>
       <c r="J47" s="3">
         <v>400000</v>
@@ -2465,11 +2675,11 @@
       <c r="K47" s="3">
         <v>400000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>400000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>400000</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2486,8 +2696,14 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2536,8 +2752,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2586,8 +2808,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2864,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,16 +2920,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2704,31 +2944,31 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2736,8 +2976,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,41 +3032,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F54" s="3">
         <v>404700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>402500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>401100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>401400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>401600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>401900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>402400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>402900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3088,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +3114,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,41 +3136,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,8 +3188,14 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2976,16 +3244,22 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>5100</v>
       </c>
       <c r="E59" s="3">
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="F59" s="3">
         <v>1400</v>
@@ -2994,22 +3268,22 @@
         <v>1500</v>
       </c>
       <c r="H59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -3026,16 +3300,22 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>5100</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
@@ -3044,23 +3324,23 @@
         <v>1500</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,8 +3356,14 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3126,41 +3412,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F62" s="3">
         <v>14700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>40600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>46100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>42500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>45700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3468,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3524,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3580,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,41 +3636,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F66" s="3">
         <v>16200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>47000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>46300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>42500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>46200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,8 +3692,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3718,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3770,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3826,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3546,8 +3882,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,41 +3938,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-45400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-44400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3994,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +4050,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +4106,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,41 +4162,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F76" s="3">
         <v>388500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>385700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>383500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>378800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>354600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>355600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>359800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>356800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4218,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,46 +4274,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,41 +4335,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>24200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4391,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,8 +4417,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4071,8 +4469,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4525,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4581,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4637,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4693,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,41 +4749,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4805,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,8 +4831,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4441,8 +4883,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4939,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,20 +4995,26 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>361100</v>
+      </c>
+      <c r="F94" s="3">
         <v>1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4568,14 +5028,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +5051,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +5077,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4661,8 +5129,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +5185,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5241,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,16 +5297,22 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-360100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4832,20 +5324,20 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>402600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4861,8 +5353,14 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4911,41 +5409,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4959,6 +5463,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
